--- a/data/trans_bre/P22_R3-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P22_R3-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.728670897832897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.277997452448264</v>
+        <v>-1.277997452448265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2842323039931863</v>
@@ -649,7 +649,7 @@
         <v>-0.5743240063543587</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.5170249175311374</v>
+        <v>-0.5170249175311377</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.166368972442702</v>
+        <v>-1.082035836483551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.631982653845684</v>
+        <v>-4.441900571572275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.640016248288373</v>
+        <v>-3.488281386441338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.015649492703416</v>
+        <v>-2.967308269352364</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2468136773399601</v>
+        <v>-0.2627844502576303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8866604571246832</v>
+        <v>-0.8921755563583869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8428849974260534</v>
+        <v>-0.8362944110784527</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.776929439519655</v>
+        <v>-0.7676928013536084</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.111025800119412</v>
+        <v>3.140393924692446</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8418670562854441</v>
+        <v>-0.837993411608484</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.2320093426791413</v>
+        <v>-0.0259872877000498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2366391293145984</v>
+        <v>-0.1504939571737288</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.197436867095937</v>
+        <v>1.24501523114783</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1827118644322359</v>
+        <v>-0.2655631072704506</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04419231389739119</v>
+        <v>0.07816725701507847</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.04714901464282703</v>
+        <v>-0.02178853896453268</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8341333736315324</v>
+        <v>-0.7962842145382577</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.567636402986759</v>
+        <v>-4.254121101057627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.778462984183234</v>
+        <v>-4.910773089521747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.270632046724274</v>
+        <v>-2.246807433107372</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2494987737077151</v>
+        <v>-0.175346842155491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7412191426098272</v>
+        <v>-0.7187658158186959</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.721396968955261</v>
+        <v>-0.7282453373492053</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.490600048132914</v>
+        <v>-0.5020646372863801</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.63456547365695</v>
+        <v>2.771753675381535</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.6695548135712334</v>
+        <v>-0.6481772234682418</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.2087420034163</v>
+        <v>-1.348334283552343</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8270361050718584</v>
+        <v>0.8667415972551653</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.141022308600229</v>
+        <v>1.33843806969856</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1566830474989416</v>
+        <v>-0.1748647657661255</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2735028420496712</v>
+        <v>-0.2843716581224113</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3500528591506443</v>
+        <v>0.3532859265447767</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.706130622767855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.233081456257245</v>
+        <v>-1.233081456257244</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.177294145146756</v>
@@ -849,7 +849,7 @@
         <v>0.7650629176051228</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.31840509296378</v>
+        <v>-0.3184050929637799</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.510955093511556</v>
+        <v>-1.528369152399407</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.274674785987562</v>
+        <v>-2.237727105466432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1045757308761094</v>
+        <v>-0.075993574978791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.4633700017562</v>
+        <v>-3.496122598700403</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3054679184733999</v>
+        <v>-0.3155555586631138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3360701203457661</v>
+        <v>-0.3488066715285268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08089035208171758</v>
+        <v>-0.03657110177714079</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6202459128097948</v>
+        <v>-0.6386178195856947</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.915564224619742</v>
+        <v>2.800726545814385</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.345466272245391</v>
+        <v>2.934576805750566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.631401388310149</v>
+        <v>3.512742542099284</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6144332018155996</v>
+        <v>0.466177029260909</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.020021375809241</v>
+        <v>0.9508430760463059</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8700064478171627</v>
+        <v>0.7145332552391893</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.29025208840866</v>
+        <v>2.318686025529612</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3507677678843961</v>
+        <v>0.2048929576417697</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.97682138172109</v>
+        <v>-2.98175333118416</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.282014973928836</v>
+        <v>-2.21558614652243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.656811191340346</v>
+        <v>-3.72169168885737</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.415790835575373</v>
+        <v>-2.445348092922548</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4748982577389287</v>
+        <v>-0.47234608806761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3920090807684217</v>
+        <v>-0.3819881017849237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4509392174489051</v>
+        <v>-0.459553423754624</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4340468389521202</v>
+        <v>-0.4284013066057446</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7702545449985095</v>
+        <v>0.8374683969389362</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.673882381586834</v>
+        <v>1.666012153064364</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6253630645222076</v>
+        <v>0.8568703621225663</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9210633978664049</v>
+        <v>0.9667425140771442</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1788109107949526</v>
+        <v>0.2034974662288354</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4383148871590579</v>
+        <v>0.4462642290507523</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1206408493764529</v>
+        <v>0.1427420473870632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2393342528186435</v>
+        <v>0.2612595573247816</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.188204050571118</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.9038250990744592</v>
+        <v>-0.9038250990744598</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08191414670524207</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2575927906365981</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2462758750173128</v>
+        <v>-0.2462758750173129</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5804303668845634</v>
+        <v>-0.6701655862730012</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.250740269195193</v>
+        <v>-2.357898319121735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.15651078137034</v>
+        <v>-2.341554552777332</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.803788532353272</v>
+        <v>-1.776399752397342</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1335386152345145</v>
+        <v>-0.1482585226059152</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4315360674581249</v>
+        <v>-0.4468716088602718</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4137490811901419</v>
+        <v>-0.4438380148756771</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4153493846644019</v>
+        <v>-0.4163835965568351</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.309571410050719</v>
+        <v>1.324012501011392</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1770800181183801</v>
+        <v>-0.1087364163199595</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3323935112748981</v>
+        <v>-0.218143999181594</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.1194987912226749</v>
+        <v>-0.08038284357510307</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3881461253845174</v>
+        <v>0.3887141802624553</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.03866918064201851</v>
+        <v>-0.02347664950390319</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.07630029788584256</v>
+        <v>-0.04526671494955801</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.0324410189753503</v>
+        <v>-0.02487217350186665</v>
       </c>
     </row>
     <row r="19">
